--- a/The Room Guide.xlsx
+++ b/The Room Guide.xlsx
@@ -32,7 +32,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -42,10 +42,7 @@
             <family val="2"/>
           </rPr>
           <t>Riddle:
-The formless one sits in the middle,
-The one without freedom on the right,
-The aging one on the left.
-Answer: Old Man Coin, Snake, Prisoner.</t>
+The formless one leads the way.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>The Room</t>
   </si>
@@ -188,20 +185,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Cave
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Prisoner Coin</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Abandoned Camp
 </t>
     </r>
@@ -212,56 +195,53 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>Car Keys</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cave
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Old Man Coin
-Secret Door</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Forest
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>(Death: Swamp)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Cave
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Riddle
-(Death: Hole)</t>
     </r>
   </si>
   <si>
     <t>The user must first examine the toilet. They will receive wire cutters. They than use the wire cutters to open the microwave. After opening it, they will find a padlock key inside of it. They can use it to remove the padlock that is holding chains together. After removing the chains, they will have access to enter the uncovered hole.
 The user will have the option to go through the hole. After entering it, they will arrive inside a cave. There will be riddle on the wall that asks for an answer. They will also find 3 coins in the cave. They must put the 3 coins in the right positions in order to open the cave.
 Once they are out of the cave, they will find themselves in a forest. They must go to the abandoned camp to pick up car keys. They will use these car keys in the abandoned car and drive off. Once they drive off, the user suddenly wakes and and realizes it was all a dream. When they get up, they realize that they still have all of their items in the possession. Was it really a dream?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cave
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cave
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Riddle</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cave</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+Secret Door</t>
+    </r>
+  </si>
+  <si>
+    <t>Cave</t>
+  </si>
+  <si>
+    <t>Done.</t>
+  </si>
+  <si>
+    <t>In Progress.</t>
   </si>
 </sst>
 </file>
@@ -401,12 +381,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,6 +405,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -445,6 +425,105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1384300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3759200" y="4241800"/>
+          <a:ext cx="0" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1384300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5588000" y="8470900"/>
+          <a:ext cx="0" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J7"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="111" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -723,92 +802,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -818,6 +907,7 @@
     <mergeCell ref="H2:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/The Room Guide.xlsx
+++ b/The Room Guide.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>The Room</t>
   </si>
@@ -203,10 +203,6 @@
 Once they are out of the cave, they will find themselves in a forest. They must go to the abandoned camp to pick up car keys. They will use these car keys in the abandoned car and drive off. Once they drive off, the user suddenly wakes and and realizes it was all a dream. When they get up, they realize that they still have all of their items in the possession. Was it really a dream?</t>
   </si>
   <si>
-    <t xml:space="preserve">Cave
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Cave
 </t>
@@ -239,9 +235,6 @@
   </si>
   <si>
     <t>Done.</t>
-  </si>
-  <si>
-    <t>In Progress.</t>
   </si>
 </sst>
 </file>
@@ -378,7 +371,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,6 +397,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.5" defaultRowHeight="111" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -802,31 +798,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -835,70 +831,68 @@
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="2:10" ht="111" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
